--- a/results/mp/logistic/corona/confidence/210/masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,108 +40,105 @@
     <t>name</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
     <t>risk</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
@@ -163,19 +163,22 @@
     <t>with</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>are</t>
   </si>
   <si>
     <t>a</t>
@@ -184,223 +187,226 @@
     <t>the</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -758,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +772,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>70</v>
@@ -827,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -877,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -895,31 +901,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>54</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4">
-        <v>0.9322033898305084</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8013698630136986</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -977,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1027,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1045,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,31 +1101,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1127,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,16 +1154,16 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1169,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1177,13 +1183,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,38 +1233,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>0.8125</v>
+      </c>
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L11">
-        <v>31</v>
-      </c>
-      <c r="M11">
-        <v>31</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,13 +1283,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6756756756756757</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.8433420365535248</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1319,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.8113207547169812</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.8048780487804879</v>
+        <v>0.79375</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,16 +1504,16 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.8028169014084507</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1533,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6153846153846154</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.796875</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1583,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5932203389830508</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.7878787878787878</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1633,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C19">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D19">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1683,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5686274509803921</v>
+        <v>0.5387596899224806</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.78125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1733,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5666666666666667</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1783,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5641025641025641</v>
+        <v>0.525</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.7727272727272727</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,13 +1833,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5503875968992248</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C23">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.7692307692307693</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1869,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1898,16 +1904,16 @@
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,16 +1954,16 @@
         <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.7291666666666666</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1969,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,13 +1983,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4871794871794872</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2033,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4838709677419355</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L27">
         <v>16</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L27">
-        <v>31</v>
-      </c>
       <c r="M27">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,13 +2083,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4832214765100671</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C28">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2095,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2127,37 +2133,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.45</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>18</v>
       </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>22</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>0.6825396825396826</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2169,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2177,13 +2183,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4388888888888889</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C30">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2219,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,13 +2233,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4054054054054054</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,19 +2251,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>0.675</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2269,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2283,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.4138888888888889</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3928571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>0.64</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2398,16 +2404,16 @@
         <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34">
-        <v>0.6176470588235294</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L34">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2419,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,13 +2433,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3454545454545455</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2445,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2469,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,13 +2483,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3454545454545455</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2495,19 +2501,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36">
-        <v>0.6108786610878661</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L36">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2519,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2533,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2666666666666667</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,19 +2551,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>0.6101694915254238</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L37">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="M37">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,13 +2583,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2619047619047619</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C38">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,19 +2601,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>0.6086956521739131</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2619,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,13 +2633,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2337662337662338</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2645,31 +2651,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2677,13 +2683,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2125</v>
+        <v>0.225</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2695,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>0.5757575757575758</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2719,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2727,13 +2733,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1662198391420912</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2745,19 +2751,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L41">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2769,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2777,13 +2783,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08333333333333333</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2795,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2819,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2827,37 +2833,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02259887005649718</v>
+        <v>0.01843971631205674</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>16</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>692</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2869,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2877,49 +2883,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01637931034482759</v>
+        <v>0.01643570737995488</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3052</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>20</v>
-      </c>
-      <c r="E44">
-        <v>0.05</v>
-      </c>
-      <c r="F44">
-        <v>0.95</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1141</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K44">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2927,37 +2933,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01559207753898019</v>
+        <v>0.016</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E45">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="F45">
-        <v>0.86</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2336</v>
+        <v>861</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K45">
-        <v>0.5476190476190477</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2969,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2977,37 +2983,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01549886987407168</v>
+        <v>0.0146551724137931</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="F46">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>3049</v>
+        <v>1143</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K46">
-        <v>0.5357142857142857</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3019,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3027,37 +3033,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01320422535211268</v>
+        <v>0.01403837154890033</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E47">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="F47">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1121</v>
+        <v>2107</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K47">
-        <v>0.5280898876404494</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3069,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3077,37 +3083,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01170411985018727</v>
+        <v>0.0134964150147617</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2111</v>
+        <v>2339</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K48">
-        <v>0.5111111111111111</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3119,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3127,28 +3133,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.009134406263592866</v>
+        <v>0.01180173092053501</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="F49">
-        <v>0.6799999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2278</v>
+        <v>1256</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>0.5</v>
@@ -3177,37 +3183,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.007593457943925234</v>
+        <v>0.01130434782608696</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="F50">
-        <v>0.5700000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>5097</v>
+        <v>2274</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K50">
-        <v>0.4901960784313725</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3219,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3227,37 +3233,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006861755802219979</v>
+        <v>0.007797270955165692</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <v>75</v>
       </c>
       <c r="E51">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="F51">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>4921</v>
+        <v>5090</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K51">
-        <v>0.4814814814814815</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3269,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3277,37 +3283,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.006747324336900884</v>
+        <v>0.006614303431169905</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E52">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="F52">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>4269</v>
+        <v>2403</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K52">
-        <v>0.4411764705882353</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3319,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3327,37 +3333,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.006649778340721976</v>
+        <v>0.006507088078085057</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E53">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="F53">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>3137</v>
+        <v>4275</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K53">
-        <v>0.3698630136986301</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3369,21 +3375,45 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>4934</v>
+      </c>
       <c r="J54" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K54">
-        <v>0.358974358974359</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3395,21 +3425,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K55">
-        <v>0.3220338983050847</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3421,15 +3451,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K56">
-        <v>0.3125</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L56">
         <v>20</v>
@@ -3447,21 +3477,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K57">
-        <v>0.2807017543859649</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3473,21 +3503,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K58">
-        <v>0.2295081967213115</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3499,21 +3529,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K59">
-        <v>0.1559633027522936</v>
+        <v>0.296875</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3525,21 +3555,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K60">
-        <v>0.1290322580645161</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3551,47 +3581,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>108</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K61">
-        <v>0.0430622009569378</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K62">
-        <v>0.04220779220779221</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3603,41 +3633,41 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>295</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K63">
-        <v>0.0347985347985348</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M63">
         <v>20</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>527</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K64">
-        <v>0.03365384615384615</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L64">
         <v>14</v>
@@ -3655,293 +3685,345 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>402</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K65">
-        <v>0.02921535893155259</v>
+        <v>0.04021937842778794</v>
       </c>
       <c r="L65">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1163</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K66">
-        <v>0.01765447667087012</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L66">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M66">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N66">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1558</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K67">
-        <v>0.0140405616224649</v>
+        <v>0.03125</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N67">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1264</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="K68">
-        <v>0.01352874859075535</v>
+        <v>0.0141287284144427</v>
       </c>
       <c r="L68">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N68">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="O68">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>2625</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="K69">
-        <v>0.01352201257861635</v>
+        <v>0.01317122593718338</v>
       </c>
       <c r="L69">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="O69">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>3137</v>
+        <v>974</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K70">
-        <v>0.01322482197355036</v>
+        <v>0.01171058134671685</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="O70">
-        <v>0.32</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>970</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K71">
-        <v>0.01256281407035176</v>
+        <v>0.0112739571589628</v>
       </c>
       <c r="L71">
         <v>30</v>
       </c>
       <c r="M71">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="O71">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2358</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="K72">
-        <v>0.009042334566378957</v>
+        <v>0.01070399341292713</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N72">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="O72">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2411</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="K73">
-        <v>0.00826279725916969</v>
+        <v>0.01007556675062972</v>
       </c>
       <c r="L73">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N73">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="O73">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>4921</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="K74">
-        <v>0.006978367062107467</v>
+        <v>0.00940733772342427</v>
       </c>
       <c r="L74">
         <v>30</v>
       </c>
       <c r="M74">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N74">
-        <v>0.51</v>
+        <v>0.71</v>
       </c>
       <c r="O74">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>4269</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K75">
-        <v>0.005657432696059305</v>
+        <v>0.006829268292682927</v>
       </c>
       <c r="L75">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M75">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N75">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="O75">
-        <v>0.5700000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>5097</v>
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="L76">
+        <v>31</v>
+      </c>
+      <c r="M76">
+        <v>62</v>
+      </c>
+      <c r="N76">
+        <v>0.5</v>
+      </c>
+      <c r="O76">
+        <v>0.5</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K77">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="L77">
+        <v>25</v>
+      </c>
+      <c r="M77">
+        <v>53</v>
+      </c>
+      <c r="N77">
+        <v>0.47</v>
+      </c>
+      <c r="O77">
+        <v>0.53</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4275</v>
       </c>
     </row>
   </sheetData>
